--- a/UvA projects/Thesis/MSc/ascm/다시 2/divided/import rmspe.xlsx
+++ b/UvA projects/Thesis/MSc/ascm/다시 2/divided/import rmspe.xlsx
@@ -426,10 +426,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E2">
-        <v>21.47150087801818</v>
+        <v>21.47150087801775</v>
       </c>
       <c r="F2">
-        <v>-1.432386458895671</v>
+        <v>-1.432386458895245</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,10 +446,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E3">
-        <v>20.3517228226048</v>
+        <v>20.35172282260441</v>
       </c>
       <c r="F3">
-        <v>-0.3126084034822867</v>
+        <v>-0.3126084034818994</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,10 +466,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E4">
-        <v>19.6197936999534</v>
+        <v>19.61979369995271</v>
       </c>
       <c r="F4">
-        <v>0.4193207191691073</v>
+        <v>0.4193207191698001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,10 +486,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E5">
-        <v>20.12070048289017</v>
+        <v>20.12070048288976</v>
       </c>
       <c r="F5">
-        <v>-0.08158606376765931</v>
+        <v>-0.0815860637672543</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,10 +506,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E6">
-        <v>19.51204365696731</v>
+        <v>19.51204365696719</v>
       </c>
       <c r="F6">
-        <v>0.5270707621552013</v>
+        <v>0.527070762155315</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,10 +526,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E7">
-        <v>20.8986275162345</v>
+        <v>20.89862751623461</v>
       </c>
       <c r="F7">
-        <v>-0.8595130971119893</v>
+        <v>-0.859513097112103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,10 +546,10 @@
         <v>19.70926278003545</v>
       </c>
       <c r="E8">
-        <v>19.80321885977816</v>
+        <v>19.80321885977832</v>
       </c>
       <c r="F8">
-        <v>-0.09395607974270703</v>
+        <v>-0.09395607974287401</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,10 +566,10 @@
         <v>19.68748875233586</v>
       </c>
       <c r="E9">
-        <v>18.21601459370972</v>
+        <v>18.21601459370973</v>
       </c>
       <c r="F9">
-        <v>1.471474158626137</v>
+        <v>1.471474158626133</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,10 +586,10 @@
         <v>20.98667288298306</v>
       </c>
       <c r="E10">
-        <v>18.87772800992391</v>
+        <v>18.87772800992377</v>
       </c>
       <c r="F10">
-        <v>2.108944873059151</v>
+        <v>2.108944873059293</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,10 +606,10 @@
         <v>25.20859743034315</v>
       </c>
       <c r="E11">
-        <v>24.32021300735059</v>
+        <v>24.32021300735036</v>
       </c>
       <c r="F11">
-        <v>0.8883844229925622</v>
+        <v>0.888384422992786</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -626,10 +626,10 @@
         <v>22.79664382976735</v>
       </c>
       <c r="E12">
-        <v>24.29678253942257</v>
+        <v>24.29678253942255</v>
       </c>
       <c r="F12">
-        <v>-1.500138709655221</v>
+        <v>-1.500138709655197</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,10 +646,10 @@
         <v>24.66336543650961</v>
       </c>
       <c r="E13">
-        <v>23.44666518170611</v>
+        <v>23.44666518170596</v>
       </c>
       <c r="F13">
-        <v>1.216700254803502</v>
+        <v>1.216700254803651</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,10 +666,10 @@
         <v>24.50131659838292</v>
       </c>
       <c r="E14">
-        <v>23.3536643499808</v>
+        <v>23.35366434998111</v>
       </c>
       <c r="F14">
-        <v>1.147652248402117</v>
+        <v>1.147652248401815</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -686,10 +686,10 @@
         <v>23.39934652628689</v>
       </c>
       <c r="E15">
-        <v>22.20513249875975</v>
+        <v>22.20513249875969</v>
       </c>
       <c r="F15">
-        <v>1.194214027527142</v>
+        <v>1.194214027527202</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -706,10 +706,10 @@
         <v>25.22877059565317</v>
       </c>
       <c r="E16">
-        <v>25.13639880352294</v>
+        <v>25.13639880352267</v>
       </c>
       <c r="F16">
-        <v>0.09237179213022984</v>
+        <v>0.09237179213050339</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,10 +726,10 @@
         <v>27.20844158055684</v>
       </c>
       <c r="E17">
-        <v>23.39937265607638</v>
+        <v>23.39937265607614</v>
       </c>
       <c r="F17">
-        <v>3.809068924480464</v>
+        <v>3.809068924480702</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -746,10 +746,10 @@
         <v>28.06049681344031</v>
       </c>
       <c r="E18">
-        <v>24.33335064140027</v>
+        <v>24.33335064140022</v>
       </c>
       <c r="F18">
-        <v>3.72714617204004</v>
+        <v>3.727146172040086</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -766,10 +766,10 @@
         <v>27.77076422352084</v>
       </c>
       <c r="E19">
-        <v>23.70881505572578</v>
+        <v>23.70881505572576</v>
       </c>
       <c r="F19">
-        <v>4.061949167795063</v>
+        <v>4.061949167795081</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -786,10 +786,10 @@
         <v>27.08782147184705</v>
       </c>
       <c r="E20">
-        <v>22.81083013668361</v>
+        <v>22.81083013668381</v>
       </c>
       <c r="F20">
-        <v>4.276991335163441</v>
+        <v>4.276991335163242</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -806,10 +806,10 @@
         <v>28.18672649853651</v>
       </c>
       <c r="E21">
-        <v>25.17990164164424</v>
+        <v>25.17990164164408</v>
       </c>
       <c r="F21">
-        <v>3.006824856892273</v>
+        <v>3.006824856892425</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -826,10 +826,10 @@
         <v>28.44324524585365</v>
       </c>
       <c r="E22">
-        <v>24.08074855286796</v>
+        <v>24.08074855286771</v>
       </c>
       <c r="F22">
-        <v>4.36249669298569</v>
+        <v>4.362496692985935</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -846,10 +846,10 @@
         <v>24.6235857520546</v>
       </c>
       <c r="E23">
-        <v>24.93981797249026</v>
+        <v>24.93981797249025</v>
       </c>
       <c r="F23">
-        <v>-0.3162322204356585</v>
+        <v>-0.3162322204356514</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -866,10 +866,10 @@
         <v>24.52252126450487</v>
       </c>
       <c r="E24">
-        <v>23.59088020246132</v>
+        <v>23.59088020246103</v>
       </c>
       <c r="F24">
-        <v>0.9316410620435533</v>
+        <v>0.9316410620438447</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -886,10 +886,10 @@
         <v>25.02003510695939</v>
       </c>
       <c r="E25">
-        <v>24.67096738239314</v>
+        <v>24.67096738239287</v>
       </c>
       <c r="F25">
-        <v>0.3490677245662468</v>
+        <v>0.3490677245665168</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -906,10 +906,10 @@
         <v>26.44470785845429</v>
       </c>
       <c r="E26">
-        <v>26.10695796821271</v>
+        <v>26.1069579682124</v>
       </c>
       <c r="F26">
-        <v>0.3377498902415788</v>
+        <v>0.3377498902418878</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -926,10 +926,10 @@
         <v>25.88229903972034</v>
       </c>
       <c r="E27">
-        <v>27.233755357472</v>
+        <v>27.23375535747172</v>
       </c>
       <c r="F27">
-        <v>-1.351456317751655</v>
+        <v>-1.351456317751381</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -946,10 +946,10 @@
         <v>25.54944173073124</v>
       </c>
       <c r="E28">
-        <v>19.6891164744037</v>
+        <v>19.68911647440346</v>
       </c>
       <c r="F28">
-        <v>5.860325256327542</v>
+        <v>5.860325256327776</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -966,10 +966,10 @@
         <v>25.04736334526921</v>
       </c>
       <c r="E29">
-        <v>23.70808150501078</v>
+        <v>23.70808150501016</v>
       </c>
       <c r="F29">
-        <v>1.339281840258433</v>
+        <v>1.339281840259048</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -986,10 +986,10 @@
         <v>23.94342343817093</v>
       </c>
       <c r="E30">
-        <v>25.08493929141</v>
+        <v>25.08493929140932</v>
       </c>
       <c r="F30">
-        <v>-1.141515853239071</v>
+        <v>-1.141515853238388</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1006,10 +1006,10 @@
         <v>25.22910157995839</v>
       </c>
       <c r="E31">
-        <v>27.32338306123226</v>
+        <v>27.32338306123183</v>
       </c>
       <c r="F31">
-        <v>-2.094281481273875</v>
+        <v>-2.094281481273445</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1026,10 +1026,10 @@
         <v>26.66993562624747</v>
       </c>
       <c r="E32">
-        <v>28.79146359825253</v>
+        <v>28.79146359825229</v>
       </c>
       <c r="F32">
-        <v>-2.121527972005065</v>
+        <v>-2.12152797200482</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1046,10 +1046,10 @@
         <v>26.8583377658407</v>
       </c>
       <c r="E33">
-        <v>30.55392397044359</v>
+        <v>30.55392397044319</v>
       </c>
       <c r="F33">
-        <v>-3.69558620460289</v>
+        <v>-3.695586204602488</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1066,10 +1066,10 @@
         <v>28.85691752362523</v>
       </c>
       <c r="E34">
-        <v>32.58972418665115</v>
+        <v>32.58972418665076</v>
       </c>
       <c r="F34">
-        <v>-3.732806663025922</v>
+        <v>-3.732806663025524</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1086,10 +1086,10 @@
         <v>29.78243203025074</v>
       </c>
       <c r="E35">
-        <v>30.64508085509406</v>
+        <v>30.6450808550938</v>
       </c>
       <c r="F35">
-        <v>-0.8626488248433191</v>
+        <v>-0.8626488248430633</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1106,10 +1106,10 @@
         <v>30.62781317282478</v>
       </c>
       <c r="E36">
-        <v>33.20184115542719</v>
+        <v>33.20184115542666</v>
       </c>
       <c r="F36">
-        <v>-2.574027982602409</v>
+        <v>-2.574027982601876</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1126,10 +1126,10 @@
         <v>34.91363768793445</v>
       </c>
       <c r="E37">
-        <v>37.89079974722142</v>
+        <v>37.89079974722059</v>
       </c>
       <c r="F37">
-        <v>-2.977162059286975</v>
+        <v>-2.977162059286144</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1146,10 +1146,10 @@
         <v>34.25235603496151</v>
       </c>
       <c r="E38">
-        <v>37.33301912543069</v>
+        <v>37.33301912542988</v>
       </c>
       <c r="F38">
-        <v>-3.08066309046918</v>
+        <v>-3.08066309046837</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>32.77589378574119</v>
       </c>
       <c r="E39">
-        <v>36.99704502989591</v>
+        <v>36.99704502989577</v>
       </c>
       <c r="F39">
-        <v>-4.221151244154719</v>
+        <v>-4.221151244154584</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1186,10 +1186,10 @@
         <v>32.45137215109391</v>
       </c>
       <c r="E40">
-        <v>36.26454073789802</v>
+        <v>36.26454073789743</v>
       </c>
       <c r="F40">
-        <v>-3.81316858680411</v>
+        <v>-3.813168586803521</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1206,10 +1206,10 @@
         <v>33.89704079885473</v>
       </c>
       <c r="E41">
-        <v>38.34323682103241</v>
+        <v>38.3432368210317</v>
       </c>
       <c r="F41">
-        <v>-4.446196022177674</v>
+        <v>-4.446196022176963</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1226,10 +1226,10 @@
         <v>35.87196473410096</v>
       </c>
       <c r="E42">
-        <v>38.7661967627955</v>
+        <v>38.76619676279461</v>
       </c>
       <c r="F42">
-        <v>-2.894232028694539</v>
+        <v>-2.894232028693644</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1246,10 +1246,10 @@
         <v>38.4186436310219</v>
       </c>
       <c r="E43">
-        <v>41.98804657345163</v>
+        <v>41.98804657345077</v>
       </c>
       <c r="F43">
-        <v>-3.569402942429726</v>
+        <v>-3.569402942428866</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1266,10 +1266,10 @@
         <v>39.46469162042393</v>
       </c>
       <c r="E44">
-        <v>40.88254748592988</v>
+        <v>40.88254748592889</v>
       </c>
       <c r="F44">
-        <v>-1.417855865505949</v>
+        <v>-1.417855865504961</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1286,10 +1286,10 @@
         <v>40.24865822110943</v>
       </c>
       <c r="E45">
-        <v>44.7718099517029</v>
+        <v>44.77180995170178</v>
       </c>
       <c r="F45">
-        <v>-4.523151730593469</v>
+        <v>-4.523151730592346</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1306,10 +1306,10 @@
         <v>34.6152950429381</v>
       </c>
       <c r="E46">
-        <v>38.53903916492047</v>
+        <v>38.53903916491981</v>
       </c>
       <c r="F46">
-        <v>-3.923744121982367</v>
+        <v>-3.923744121981713</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1326,10 +1326,10 @@
         <v>38.72401826768825</v>
       </c>
       <c r="E47">
-        <v>40.71476244058005</v>
+        <v>40.7147624405793</v>
       </c>
       <c r="F47">
-        <v>-1.990744172891795</v>
+        <v>-1.990744172891048</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1346,10 +1346,10 @@
         <v>41.53160743808315</v>
       </c>
       <c r="E48">
-        <v>44.18723626408089</v>
+        <v>44.1872362640803</v>
       </c>
       <c r="F48">
-        <v>-2.655628825997738</v>
+        <v>-2.655628825997155</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1366,10 +1366,10 @@
         <v>41.93516907025096</v>
       </c>
       <c r="E49">
-        <v>44.13033112269353</v>
+        <v>44.13033112269303</v>
       </c>
       <c r="F49">
-        <v>-2.195162052442569</v>
+        <v>-2.195162052442072</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1386,10 +1386,10 @@
         <v>41.4496581026678</v>
       </c>
       <c r="E50">
-        <v>41.2751868112619</v>
+        <v>41.27518681126153</v>
       </c>
       <c r="F50">
-        <v>0.1744712914059008</v>
+        <v>0.1744712914062632</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1406,10 +1406,10 @@
         <v>41.91161290018507</v>
       </c>
       <c r="E51">
-        <v>39.85598882255016</v>
+        <v>39.85598882254992</v>
       </c>
       <c r="F51">
-        <v>2.05562407763491</v>
+        <v>2.055624077635152</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1426,10 +1426,10 @@
         <v>42.72979234437094</v>
       </c>
       <c r="E52">
-        <v>37.74806333159056</v>
+        <v>37.7480633315904</v>
       </c>
       <c r="F52">
-        <v>4.981729012780377</v>
+        <v>4.981729012780541</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1446,10 +1446,10 @@
         <v>42.30697783137728</v>
       </c>
       <c r="E53">
-        <v>35.6378118516917</v>
+        <v>35.6378118516915</v>
       </c>
       <c r="F53">
-        <v>6.66916597968558</v>
+        <v>6.669165979685786</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1466,10 +1466,10 @@
         <v>44.07787443360112</v>
       </c>
       <c r="E54">
-        <v>36.58442460039575</v>
+        <v>36.58442460039547</v>
       </c>
       <c r="F54">
-        <v>7.493449833205368</v>
+        <v>7.493449833205645</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1486,10 +1486,10 @@
         <v>45.32586438543149</v>
       </c>
       <c r="E55">
-        <v>37.66267502191102</v>
+        <v>37.66267502191074</v>
       </c>
       <c r="F55">
-        <v>7.663189363520466</v>
+        <v>7.66318936352075</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1506,10 +1506,10 @@
         <v>45.89711761010219</v>
       </c>
       <c r="E56">
-        <v>40.06018951565951</v>
+        <v>40.06018951565896</v>
       </c>
       <c r="F56">
-        <v>5.836928094442683</v>
+        <v>5.83692809444323</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1526,10 +1526,10 @@
         <v>42.87121368957884</v>
       </c>
       <c r="E57">
-        <v>37.3018731418502</v>
+        <v>37.30187314185017</v>
       </c>
       <c r="F57">
-        <v>5.569340547728636</v>
+        <v>5.569340547728672</v>
       </c>
     </row>
   </sheetData>

--- a/UvA projects/Thesis/MSc/ascm/다시 2/divided/import rmspe.xlsx
+++ b/UvA projects/Thesis/MSc/ascm/다시 2/divided/import rmspe.xlsx
@@ -426,10 +426,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E2">
-        <v>21.47150087801775</v>
+        <v>21.47150087801818</v>
       </c>
       <c r="F2">
-        <v>-1.432386458895245</v>
+        <v>-1.432386458895671</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,10 +446,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E3">
-        <v>20.35172282260441</v>
+        <v>20.3517228226048</v>
       </c>
       <c r="F3">
-        <v>-0.3126084034818994</v>
+        <v>-0.3126084034822867</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,10 +466,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E4">
-        <v>19.61979369995271</v>
+        <v>19.6197936999534</v>
       </c>
       <c r="F4">
-        <v>0.4193207191698001</v>
+        <v>0.4193207191691073</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,10 +486,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E5">
-        <v>20.12070048288976</v>
+        <v>20.12070048289017</v>
       </c>
       <c r="F5">
-        <v>-0.0815860637672543</v>
+        <v>-0.08158606376765931</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,10 +506,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E6">
-        <v>19.51204365696719</v>
+        <v>19.51204365696731</v>
       </c>
       <c r="F6">
-        <v>0.527070762155315</v>
+        <v>0.5270707621552013</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,10 +526,10 @@
         <v>20.03911441912251</v>
       </c>
       <c r="E7">
-        <v>20.89862751623461</v>
+        <v>20.8986275162345</v>
       </c>
       <c r="F7">
-        <v>-0.859513097112103</v>
+        <v>-0.8595130971119893</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,10 +546,10 @@
         <v>19.70926278003545</v>
       </c>
       <c r="E8">
-        <v>19.80321885977832</v>
+        <v>19.80321885977816</v>
       </c>
       <c r="F8">
-        <v>-0.09395607974287401</v>
+        <v>-0.09395607974270703</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,10 +566,10 @@
         <v>19.68748875233586</v>
       </c>
       <c r="E9">
-        <v>18.21601459370973</v>
+        <v>18.21601459370972</v>
       </c>
       <c r="F9">
-        <v>1.471474158626133</v>
+        <v>1.471474158626137</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,10 +586,10 @@
         <v>20.98667288298306</v>
       </c>
       <c r="E10">
-        <v>18.87772800992377</v>
+        <v>18.87772800992391</v>
       </c>
       <c r="F10">
-        <v>2.108944873059293</v>
+        <v>2.108944873059151</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,10 +606,10 @@
         <v>25.20859743034315</v>
       </c>
       <c r="E11">
-        <v>24.32021300735036</v>
+        <v>24.32021300735059</v>
       </c>
       <c r="F11">
-        <v>0.888384422992786</v>
+        <v>0.8883844229925622</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -626,10 +626,10 @@
         <v>22.79664382976735</v>
       </c>
       <c r="E12">
-        <v>24.29678253942255</v>
+        <v>24.29678253942257</v>
       </c>
       <c r="F12">
-        <v>-1.500138709655197</v>
+        <v>-1.500138709655221</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,10 +646,10 @@
         <v>24.66336543650961</v>
       </c>
       <c r="E13">
-        <v>23.44666518170596</v>
+        <v>23.44666518170611</v>
       </c>
       <c r="F13">
-        <v>1.216700254803651</v>
+        <v>1.216700254803502</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,10 +666,10 @@
         <v>24.50131659838292</v>
       </c>
       <c r="E14">
-        <v>23.35366434998111</v>
+        <v>23.3536643499808</v>
       </c>
       <c r="F14">
-        <v>1.147652248401815</v>
+        <v>1.147652248402117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -686,10 +686,10 @@
         <v>23.39934652628689</v>
       </c>
       <c r="E15">
-        <v>22.20513249875969</v>
+        <v>22.20513249875975</v>
       </c>
       <c r="F15">
-        <v>1.194214027527202</v>
+        <v>1.194214027527142</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -706,10 +706,10 @@
         <v>25.22877059565317</v>
       </c>
       <c r="E16">
-        <v>25.13639880352267</v>
+        <v>25.13639880352294</v>
       </c>
       <c r="F16">
-        <v>0.09237179213050339</v>
+        <v>0.09237179213022984</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,10 +726,10 @@
         <v>27.20844158055684</v>
       </c>
       <c r="E17">
-        <v>23.39937265607614</v>
+        <v>23.39937265607638</v>
       </c>
       <c r="F17">
-        <v>3.809068924480702</v>
+        <v>3.809068924480464</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -746,10 +746,10 @@
         <v>28.06049681344031</v>
       </c>
       <c r="E18">
-        <v>24.33335064140022</v>
+        <v>24.33335064140027</v>
       </c>
       <c r="F18">
-        <v>3.727146172040086</v>
+        <v>3.72714617204004</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -766,10 +766,10 @@
         <v>27.77076422352084</v>
       </c>
       <c r="E19">
-        <v>23.70881505572576</v>
+        <v>23.70881505572578</v>
       </c>
       <c r="F19">
-        <v>4.061949167795081</v>
+        <v>4.061949167795063</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -786,10 +786,10 @@
         <v>27.08782147184705</v>
       </c>
       <c r="E20">
-        <v>22.81083013668381</v>
+        <v>22.81083013668361</v>
       </c>
       <c r="F20">
-        <v>4.276991335163242</v>
+        <v>4.276991335163441</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -806,10 +806,10 @@
         <v>28.18672649853651</v>
       </c>
       <c r="E21">
-        <v>25.17990164164408</v>
+        <v>25.17990164164424</v>
       </c>
       <c r="F21">
-        <v>3.006824856892425</v>
+        <v>3.006824856892273</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -826,10 +826,10 @@
         <v>28.44324524585365</v>
       </c>
       <c r="E22">
-        <v>24.08074855286771</v>
+        <v>24.08074855286796</v>
       </c>
       <c r="F22">
-        <v>4.362496692985935</v>
+        <v>4.36249669298569</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -846,10 +846,10 @@
         <v>24.6235857520546</v>
       </c>
       <c r="E23">
-        <v>24.93981797249025</v>
+        <v>24.93981797249026</v>
       </c>
       <c r="F23">
-        <v>-0.3162322204356514</v>
+        <v>-0.3162322204356585</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -866,10 +866,10 @@
         <v>24.52252126450487</v>
       </c>
       <c r="E24">
-        <v>23.59088020246103</v>
+        <v>23.59088020246132</v>
       </c>
       <c r="F24">
-        <v>0.9316410620438447</v>
+        <v>0.9316410620435533</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -886,10 +886,10 @@
         <v>25.02003510695939</v>
       </c>
       <c r="E25">
-        <v>24.67096738239287</v>
+        <v>24.67096738239314</v>
       </c>
       <c r="F25">
-        <v>0.3490677245665168</v>
+        <v>0.3490677245662468</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -906,10 +906,10 @@
         <v>26.44470785845429</v>
       </c>
       <c r="E26">
-        <v>26.1069579682124</v>
+        <v>26.10695796821271</v>
       </c>
       <c r="F26">
-        <v>0.3377498902418878</v>
+        <v>0.3377498902415788</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -926,10 +926,10 @@
         <v>25.88229903972034</v>
       </c>
       <c r="E27">
-        <v>27.23375535747172</v>
+        <v>27.233755357472</v>
       </c>
       <c r="F27">
-        <v>-1.351456317751381</v>
+        <v>-1.351456317751655</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -946,10 +946,10 @@
         <v>25.54944173073124</v>
       </c>
       <c r="E28">
-        <v>19.68911647440346</v>
+        <v>19.6891164744037</v>
       </c>
       <c r="F28">
-        <v>5.860325256327776</v>
+        <v>5.860325256327542</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -966,10 +966,10 @@
         <v>25.04736334526921</v>
       </c>
       <c r="E29">
-        <v>23.70808150501016</v>
+        <v>23.70808150501078</v>
       </c>
       <c r="F29">
-        <v>1.339281840259048</v>
+        <v>1.339281840258433</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -986,10 +986,10 @@
         <v>23.94342343817093</v>
       </c>
       <c r="E30">
-        <v>25.08493929140932</v>
+        <v>25.08493929141</v>
       </c>
       <c r="F30">
-        <v>-1.141515853238388</v>
+        <v>-1.141515853239071</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1006,10 +1006,10 @@
         <v>25.22910157995839</v>
       </c>
       <c r="E31">
-        <v>27.32338306123183</v>
+        <v>27.32338306123226</v>
       </c>
       <c r="F31">
-        <v>-2.094281481273445</v>
+        <v>-2.094281481273875</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1026,10 +1026,10 @@
         <v>26.66993562624747</v>
       </c>
       <c r="E32">
-        <v>28.79146359825229</v>
+        <v>28.79146359825253</v>
       </c>
       <c r="F32">
-        <v>-2.12152797200482</v>
+        <v>-2.121527972005065</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1046,10 +1046,10 @@
         <v>26.8583377658407</v>
       </c>
       <c r="E33">
-        <v>30.55392397044319</v>
+        <v>30.55392397044359</v>
       </c>
       <c r="F33">
-        <v>-3.695586204602488</v>
+        <v>-3.69558620460289</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1066,10 +1066,10 @@
         <v>28.85691752362523</v>
       </c>
       <c r="E34">
-        <v>32.58972418665076</v>
+        <v>32.58972418665115</v>
       </c>
       <c r="F34">
-        <v>-3.732806663025524</v>
+        <v>-3.732806663025922</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1086,10 +1086,10 @@
         <v>29.78243203025074</v>
       </c>
       <c r="E35">
-        <v>30.6450808550938</v>
+        <v>30.64508085509406</v>
       </c>
       <c r="F35">
-        <v>-0.8626488248430633</v>
+        <v>-0.8626488248433191</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1106,10 +1106,10 @@
         <v>30.62781317282478</v>
       </c>
       <c r="E36">
-        <v>33.20184115542666</v>
+        <v>33.20184115542719</v>
       </c>
       <c r="F36">
-        <v>-2.574027982601876</v>
+        <v>-2.574027982602409</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1126,10 +1126,10 @@
         <v>34.91363768793445</v>
       </c>
       <c r="E37">
-        <v>37.89079974722059</v>
+        <v>37.89079974722142</v>
       </c>
       <c r="F37">
-        <v>-2.977162059286144</v>
+        <v>-2.977162059286975</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1146,10 +1146,10 @@
         <v>34.25235603496151</v>
       </c>
       <c r="E38">
-        <v>37.33301912542988</v>
+        <v>37.33301912543069</v>
       </c>
       <c r="F38">
-        <v>-3.08066309046837</v>
+        <v>-3.08066309046918</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>32.77589378574119</v>
       </c>
       <c r="E39">
-        <v>36.99704502989577</v>
+        <v>36.99704502989591</v>
       </c>
       <c r="F39">
-        <v>-4.221151244154584</v>
+        <v>-4.221151244154719</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1186,10 +1186,10 @@
         <v>32.45137215109391</v>
       </c>
       <c r="E40">
-        <v>36.26454073789743</v>
+        <v>36.26454073789802</v>
       </c>
       <c r="F40">
-        <v>-3.813168586803521</v>
+        <v>-3.81316858680411</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1206,10 +1206,10 @@
         <v>33.89704079885473</v>
       </c>
       <c r="E41">
-        <v>38.3432368210317</v>
+        <v>38.34323682103241</v>
       </c>
       <c r="F41">
-        <v>-4.446196022176963</v>
+        <v>-4.446196022177674</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1226,10 +1226,10 @@
         <v>35.87196473410096</v>
       </c>
       <c r="E42">
-        <v>38.76619676279461</v>
+        <v>38.7661967627955</v>
       </c>
       <c r="F42">
-        <v>-2.894232028693644</v>
+        <v>-2.894232028694539</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1246,10 +1246,10 @@
         <v>38.4186436310219</v>
       </c>
       <c r="E43">
-        <v>41.98804657345077</v>
+        <v>41.98804657345163</v>
       </c>
       <c r="F43">
-        <v>-3.569402942428866</v>
+        <v>-3.569402942429726</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1266,10 +1266,10 @@
         <v>39.46469162042393</v>
       </c>
       <c r="E44">
-        <v>40.88254748592889</v>
+        <v>40.88254748592988</v>
       </c>
       <c r="F44">
-        <v>-1.417855865504961</v>
+        <v>-1.417855865505949</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1286,10 +1286,10 @@
         <v>40.24865822110943</v>
       </c>
       <c r="E45">
-        <v>44.77180995170178</v>
+        <v>44.7718099517029</v>
       </c>
       <c r="F45">
-        <v>-4.523151730592346</v>
+        <v>-4.523151730593469</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1306,10 +1306,10 @@
         <v>34.6152950429381</v>
       </c>
       <c r="E46">
-        <v>38.53903916491981</v>
+        <v>38.53903916492047</v>
       </c>
       <c r="F46">
-        <v>-3.923744121981713</v>
+        <v>-3.923744121982367</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1326,10 +1326,10 @@
         <v>38.72401826768825</v>
       </c>
       <c r="E47">
-        <v>40.7147624405793</v>
+        <v>40.71476244058005</v>
       </c>
       <c r="F47">
-        <v>-1.990744172891048</v>
+        <v>-1.990744172891795</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1346,10 +1346,10 @@
         <v>41.53160743808315</v>
       </c>
       <c r="E48">
-        <v>44.1872362640803</v>
+        <v>44.18723626408089</v>
       </c>
       <c r="F48">
-        <v>-2.655628825997155</v>
+        <v>-2.655628825997738</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1366,10 +1366,10 @@
         <v>41.93516907025096</v>
       </c>
       <c r="E49">
-        <v>44.13033112269303</v>
+        <v>44.13033112269353</v>
       </c>
       <c r="F49">
-        <v>-2.195162052442072</v>
+        <v>-2.195162052442569</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1386,10 +1386,10 @@
         <v>41.4496581026678</v>
       </c>
       <c r="E50">
-        <v>41.27518681126153</v>
+        <v>41.2751868112619</v>
       </c>
       <c r="F50">
-        <v>0.1744712914062632</v>
+        <v>0.1744712914059008</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1406,10 +1406,10 @@
         <v>41.91161290018507</v>
       </c>
       <c r="E51">
-        <v>39.85598882254992</v>
+        <v>39.85598882255016</v>
       </c>
       <c r="F51">
-        <v>2.055624077635152</v>
+        <v>2.05562407763491</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1426,10 +1426,10 @@
         <v>42.72979234437094</v>
       </c>
       <c r="E52">
-        <v>37.7480633315904</v>
+        <v>37.74806333159056</v>
       </c>
       <c r="F52">
-        <v>4.981729012780541</v>
+        <v>4.981729012780377</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1446,10 +1446,10 @@
         <v>42.30697783137728</v>
       </c>
       <c r="E53">
-        <v>35.6378118516915</v>
+        <v>35.6378118516917</v>
       </c>
       <c r="F53">
-        <v>6.669165979685786</v>
+        <v>6.66916597968558</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1466,10 +1466,10 @@
         <v>44.07787443360112</v>
       </c>
       <c r="E54">
-        <v>36.58442460039547</v>
+        <v>36.58442460039575</v>
       </c>
       <c r="F54">
-        <v>7.493449833205645</v>
+        <v>7.493449833205368</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1486,10 +1486,10 @@
         <v>45.32586438543149</v>
       </c>
       <c r="E55">
-        <v>37.66267502191074</v>
+        <v>37.66267502191102</v>
       </c>
       <c r="F55">
-        <v>7.66318936352075</v>
+        <v>7.663189363520466</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1506,10 +1506,10 @@
         <v>45.89711761010219</v>
       </c>
       <c r="E56">
-        <v>40.06018951565896</v>
+        <v>40.06018951565951</v>
       </c>
       <c r="F56">
-        <v>5.83692809444323</v>
+        <v>5.836928094442683</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1526,10 +1526,10 @@
         <v>42.87121368957884</v>
       </c>
       <c r="E57">
-        <v>37.30187314185017</v>
+        <v>37.3018731418502</v>
       </c>
       <c r="F57">
-        <v>5.569340547728672</v>
+        <v>5.569340547728636</v>
       </c>
     </row>
   </sheetData>
